--- a/샘플데이터/학사_성적데이터/샘플-학사정보데이터(2022-05-04).xlsx
+++ b/샘플데이터/학사_성적데이터/샘플-학사정보데이터(2022-05-04).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\학사_성적데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5FA2D28-E8E7-4998-9810-0090A0041753}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6618BE5-CD94-44E8-99AF-43BB1AEFE0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,9 +18,6 @@
     <sheet name="성적테이블 제1정규화" sheetId="6" r:id="rId3"/>
     <sheet name="과목코드" sheetId="3" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1975" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2175" uniqueCount="409">
   <si>
     <t>학번</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1285,6 +1282,66 @@
   </si>
   <si>
     <t>경북 구미시 봉곡동 204-1</t>
+  </si>
+  <si>
+    <t>미술학</t>
+  </si>
+  <si>
+    <t>필리스</t>
+  </si>
+  <si>
+    <t>영어영문</t>
+  </si>
+  <si>
+    <t>권오순</t>
+  </si>
+  <si>
+    <t>고전음악학</t>
+  </si>
+  <si>
+    <t>파파로티</t>
+  </si>
+  <si>
+    <t>정보통신공학</t>
+  </si>
+  <si>
+    <t>최양록</t>
+  </si>
+  <si>
+    <t>전자공학</t>
+  </si>
+  <si>
+    <t>이철기</t>
+  </si>
+  <si>
+    <t>국어국문</t>
+  </si>
+  <si>
+    <t>백석기</t>
+  </si>
+  <si>
+    <t>컴퓨터공학</t>
+  </si>
+  <si>
+    <t>토발즈</t>
+  </si>
+  <si>
+    <t>관광학</t>
+  </si>
+  <si>
+    <t>이한우</t>
+  </si>
+  <si>
+    <t>법학</t>
+  </si>
+  <si>
+    <t>킹스필드</t>
+  </si>
+  <si>
+    <t>무역학</t>
+  </si>
+  <si>
+    <t>심하군</t>
   </si>
 </sst>
 </file>
@@ -1664,144 +1721,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="학생정보"/>
-      <sheetName val="학과정보"/>
-      <sheetName val="성적테이블 제1정규화"/>
-      <sheetName val="학생별 총점"/>
-      <sheetName val="학생별총점+학생정보"/>
-      <sheetName val="성적테이블_칼럼"/>
-      <sheetName val="성젝_학생테이블"/>
-      <sheetName val="성적정보_최종"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>001</v>
-          </cell>
-          <cell r="B2" t="str">
-            <v>컴퓨터공학</v>
-          </cell>
-          <cell r="C2" t="str">
-            <v>토발즈</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>002</v>
-          </cell>
-          <cell r="B3" t="str">
-            <v>전자공학</v>
-          </cell>
-          <cell r="C3" t="str">
-            <v>이철기</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>003</v>
-          </cell>
-          <cell r="B4" t="str">
-            <v>법학</v>
-          </cell>
-          <cell r="C4" t="str">
-            <v>킹스필드</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>004</v>
-          </cell>
-          <cell r="B5" t="str">
-            <v>관광학</v>
-          </cell>
-          <cell r="C5" t="str">
-            <v>이한우</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>005</v>
-          </cell>
-          <cell r="B6" t="str">
-            <v>국어국문</v>
-          </cell>
-          <cell r="C6" t="str">
-            <v>백석기</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>006</v>
-          </cell>
-          <cell r="B7" t="str">
-            <v>영어영문</v>
-          </cell>
-          <cell r="C7" t="str">
-            <v>권오순</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>007</v>
-          </cell>
-          <cell r="B8" t="str">
-            <v>무역학</v>
-          </cell>
-          <cell r="C8" t="str">
-            <v>심하군</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>008</v>
-          </cell>
-          <cell r="B9" t="str">
-            <v>미술학</v>
-          </cell>
-          <cell r="C9" t="str">
-            <v>필리스</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>009</v>
-          </cell>
-          <cell r="B10" t="str">
-            <v>고전음악학</v>
-          </cell>
-          <cell r="C10" t="str">
-            <v>파파로티</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>010</v>
-          </cell>
-          <cell r="B11" t="str">
-            <v>정보통신공학</v>
-          </cell>
-          <cell r="C11" t="str">
-            <v>최양록</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-      <sheetData sheetId="6"/>
-      <sheetData sheetId="7"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
@@ -2152,7 +2071,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-7233-0184</v>
+        <v>010-7503-5437</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>239</v>
@@ -2163,13 +2082,11 @@
       <c r="F2" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="G2" s="10" t="str">
-        <f>VLOOKUP(F2,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>미술학</v>
-      </c>
-      <c r="H2" s="11" t="str">
-        <f>VLOOKUP(F2,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>필리스</v>
+      <c r="G2" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H2" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2181,7 +2098,7 @@
       </c>
       <c r="C3" s="10" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-6608-8967</v>
+        <v>010-6827-0688</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>237</v>
@@ -2192,13 +2109,11 @@
       <c r="F3" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="G3" s="10" t="str">
-        <f>VLOOKUP(F3,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H3" s="11" t="str">
-        <f>VLOOKUP(F3,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G3" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -2210,7 +2125,7 @@
       </c>
       <c r="C4" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5172-3235</v>
+        <v>010-1242-4537</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>324</v>
@@ -2221,13 +2136,11 @@
       <c r="F4" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="G4" s="10" t="str">
-        <f>VLOOKUP(F4,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H4" s="11" t="str">
-        <f>VLOOKUP(F4,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G4" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H4" s="11" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -2239,7 +2152,7 @@
       </c>
       <c r="C5" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8867-6137</v>
+        <v>010-2972-7170</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>326</v>
@@ -2250,13 +2163,11 @@
       <c r="F5" s="27" t="s">
         <v>323</v>
       </c>
-      <c r="G5" s="10" t="str">
-        <f>VLOOKUP(F5,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H5" s="11" t="str">
-        <f>VLOOKUP(F5,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G5" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="H5" s="11" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2268,7 +2179,7 @@
       </c>
       <c r="C6" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2866-6805</v>
+        <v>010-4899-0752</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>233</v>
@@ -2279,13 +2190,11 @@
       <c r="F6" s="27" t="s">
         <v>327</v>
       </c>
-      <c r="G6" s="10" t="str">
-        <f>VLOOKUP(F6,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H6" s="11" t="str">
-        <f>VLOOKUP(F6,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G6" s="10" t="s">
+        <v>395</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -2297,7 +2206,7 @@
       </c>
       <c r="C7" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5004-2764</v>
+        <v>010-7811-8510</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>231</v>
@@ -2308,13 +2217,11 @@
       <c r="F7" s="27" t="s">
         <v>328</v>
       </c>
-      <c r="G7" s="10" t="str">
-        <f>VLOOKUP(F7,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H7" s="11" t="str">
-        <f>VLOOKUP(F7,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G7" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2326,7 +2233,7 @@
       </c>
       <c r="C8" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3800-4753</v>
+        <v>010-1820-0748</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>329</v>
@@ -2337,13 +2244,11 @@
       <c r="F8" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="G8" s="10" t="str">
-        <f>VLOOKUP(F8,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>국어국문</v>
-      </c>
-      <c r="H8" s="11" t="str">
-        <f>VLOOKUP(F8,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>백석기</v>
+      <c r="G8" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2355,7 +2260,7 @@
       </c>
       <c r="C9" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4436-6164</v>
+        <v>010-2416-9155</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>228</v>
@@ -2366,13 +2271,11 @@
       <c r="F9" s="27" t="s">
         <v>322</v>
       </c>
-      <c r="G9" s="10" t="str">
-        <f>VLOOKUP(F9,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>미술학</v>
-      </c>
-      <c r="H9" s="11" t="str">
-        <f>VLOOKUP(F9,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>필리스</v>
+      <c r="G9" s="10" t="s">
+        <v>389</v>
+      </c>
+      <c r="H9" s="11" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2384,7 +2287,7 @@
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3404-4932</v>
+        <v>010-6741-5474</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>226</v>
@@ -2395,13 +2298,11 @@
       <c r="F10" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="G10" s="10" t="str">
-        <f>VLOOKUP(F10,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H10" s="11" t="str">
-        <f>VLOOKUP(F10,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G10" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H10" s="11" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2413,7 +2314,7 @@
       </c>
       <c r="C11" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8571-5010</v>
+        <v>010-7317-8825</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>331</v>
@@ -2424,13 +2325,11 @@
       <c r="F11" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="G11" s="10" t="str">
-        <f>VLOOKUP(F11,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H11" s="11" t="str">
-        <f>VLOOKUP(F11,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G11" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2442,7 +2341,7 @@
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8951-9380</v>
+        <v>010-8625-9290</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>332</v>
@@ -2453,13 +2352,11 @@
       <c r="F12" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="G12" s="10" t="str">
-        <f>VLOOKUP(F12,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H12" s="11" t="str">
-        <f>VLOOKUP(F12,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G12" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -2471,7 +2368,7 @@
       </c>
       <c r="C13" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2803-1731</v>
+        <v>010-3599-8769</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>222</v>
@@ -2482,13 +2379,11 @@
       <c r="F13" s="27" t="s">
         <v>333</v>
       </c>
-      <c r="G13" s="10" t="str">
-        <f>VLOOKUP(F13,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H13" s="11" t="str">
-        <f>VLOOKUP(F13,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G13" s="10" t="s">
+        <v>401</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2500,7 +2395,7 @@
       </c>
       <c r="C14" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1814-7099</v>
+        <v>010-6504-3224</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>334</v>
@@ -2511,13 +2406,11 @@
       <c r="F14" s="27" t="s">
         <v>330</v>
       </c>
-      <c r="G14" s="10" t="str">
-        <f>VLOOKUP(F14,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>국어국문</v>
-      </c>
-      <c r="H14" s="11" t="str">
-        <f>VLOOKUP(F14,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>백석기</v>
+      <c r="G14" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -2529,7 +2422,7 @@
       </c>
       <c r="C15" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4650-1446</v>
+        <v>010-6425-7894</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>219</v>
@@ -2540,13 +2433,11 @@
       <c r="F15" s="27" t="s">
         <v>335</v>
       </c>
-      <c r="G15" s="10" t="str">
-        <f>VLOOKUP(F15,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>관광학</v>
-      </c>
-      <c r="H15" s="11" t="str">
-        <f>VLOOKUP(F15,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이한우</v>
+      <c r="G15" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2558,7 +2449,7 @@
       </c>
       <c r="C16" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8528-2631</v>
+        <v>010-3998-3081</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>217</v>
@@ -2569,13 +2460,11 @@
       <c r="F16" s="27" t="s">
         <v>325</v>
       </c>
-      <c r="G16" s="10" t="str">
-        <f>VLOOKUP(F16,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H16" s="11" t="str">
-        <f>VLOOKUP(F16,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G16" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="H16" s="11" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -2587,7 +2476,7 @@
       </c>
       <c r="C17" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7153-1852</v>
+        <v>010-7780-8281</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>215</v>
@@ -2598,13 +2487,11 @@
       <c r="F17" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="G17" s="15" t="str">
-        <f>VLOOKUP(F17,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H17" s="16" t="str">
-        <f>VLOOKUP(F17,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G17" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H17" s="16" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -2616,7 +2503,7 @@
       </c>
       <c r="C18" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2484-5323</v>
+        <v>010-8676-9851</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>336</v>
@@ -2627,13 +2514,11 @@
       <c r="F18" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G18" s="15" t="str">
-        <f>VLOOKUP(F18,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>미술학</v>
-      </c>
-      <c r="H18" s="16" t="str">
-        <f>VLOOKUP(F18,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>필리스</v>
+      <c r="G18" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H18" s="16" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -2645,7 +2530,7 @@
       </c>
       <c r="C19" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2735-7499</v>
+        <v>010-4369-8513</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>337</v>
@@ -2656,13 +2541,11 @@
       <c r="F19" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G19" s="15" t="str">
-        <f>VLOOKUP(F19,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H19" s="16" t="str">
-        <f>VLOOKUP(F19,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G19" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H19" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -2674,7 +2557,7 @@
       </c>
       <c r="C20" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5205-8800</v>
+        <v>010-1798-3493</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>338</v>
@@ -2685,13 +2568,11 @@
       <c r="F20" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G20" s="15" t="str">
-        <f>VLOOKUP(F20,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H20" s="16" t="str">
-        <f>VLOOKUP(F20,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G20" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H20" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -2703,7 +2584,7 @@
       </c>
       <c r="C21" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5315-7288</v>
+        <v>010-6393-7120</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>339</v>
@@ -2714,13 +2595,11 @@
       <c r="F21" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G21" s="15" t="str">
-        <f>VLOOKUP(F21,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H21" s="16" t="str">
-        <f>VLOOKUP(F21,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G21" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H21" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -2732,7 +2611,7 @@
       </c>
       <c r="C22" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4776-2585</v>
+        <v>010-2472-1549</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>340</v>
@@ -2743,13 +2622,11 @@
       <c r="F22" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="G22" s="15" t="str">
-        <f>VLOOKUP(F22,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H22" s="16" t="str">
-        <f>VLOOKUP(F22,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G22" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H22" s="16" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -2761,7 +2638,7 @@
       </c>
       <c r="C23" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2031-9947</v>
+        <v>010-8366-2147</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>341</v>
@@ -2772,13 +2649,11 @@
       <c r="F23" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G23" s="15" t="str">
-        <f>VLOOKUP(F23,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H23" s="16" t="str">
-        <f>VLOOKUP(F23,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G23" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H23" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -2790,7 +2665,7 @@
       </c>
       <c r="C24" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5149-8995</v>
+        <v>010-7382-9799</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>207</v>
@@ -2801,13 +2676,11 @@
       <c r="F24" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G24" s="15" t="str">
-        <f>VLOOKUP(F24,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H24" s="16" t="str">
-        <f>VLOOKUP(F24,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G24" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H24" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -2819,7 +2692,7 @@
       </c>
       <c r="C25" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1139-4003</v>
+        <v>010-2234-8897</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>205</v>
@@ -2830,13 +2703,11 @@
       <c r="F25" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G25" s="15" t="str">
-        <f>VLOOKUP(F25,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H25" s="16" t="str">
-        <f>VLOOKUP(F25,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G25" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H25" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -2848,7 +2719,7 @@
       </c>
       <c r="C26" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1266-8551</v>
+        <v>010-6996-6033</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>203</v>
@@ -2859,13 +2730,11 @@
       <c r="F26" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G26" s="15" t="str">
-        <f>VLOOKUP(F26,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H26" s="16" t="str">
-        <f>VLOOKUP(F26,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G26" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H26" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -2877,7 +2746,7 @@
       </c>
       <c r="C27" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4211-3607</v>
+        <v>010-3375-4647</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>342</v>
@@ -2888,13 +2757,11 @@
       <c r="F27" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="G27" s="15" t="str">
-        <f>VLOOKUP(F27,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>관광학</v>
-      </c>
-      <c r="H27" s="16" t="str">
-        <f>VLOOKUP(F27,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이한우</v>
+      <c r="G27" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H27" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -2906,7 +2773,7 @@
       </c>
       <c r="C28" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2658-2974</v>
+        <v>010-8691-0538</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>343</v>
@@ -2917,13 +2784,11 @@
       <c r="F28" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G28" s="15" t="str">
-        <f>VLOOKUP(F28,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H28" s="16" t="str">
-        <f>VLOOKUP(F28,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G28" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H28" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2935,7 +2800,7 @@
       </c>
       <c r="C29" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8896-7986</v>
+        <v>010-4405-8873</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>344</v>
@@ -2946,13 +2811,11 @@
       <c r="F29" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G29" s="15" t="str">
-        <f>VLOOKUP(F29,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H29" s="16" t="str">
-        <f>VLOOKUP(F29,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G29" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H29" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -2964,7 +2827,7 @@
       </c>
       <c r="C30" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8951-1575</v>
+        <v>010-8434-9760</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>198</v>
@@ -2975,13 +2838,11 @@
       <c r="F30" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G30" s="15" t="str">
-        <f>VLOOKUP(F30,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H30" s="16" t="str">
-        <f>VLOOKUP(F30,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G30" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H30" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2993,7 +2854,7 @@
       </c>
       <c r="C31" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1243-0963</v>
+        <v>010-1712-6190</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>196</v>
@@ -3004,13 +2865,11 @@
       <c r="F31" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G31" s="15" t="str">
-        <f>VLOOKUP(F31,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H31" s="16" t="str">
-        <f>VLOOKUP(F31,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G31" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H31" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -3022,7 +2881,7 @@
       </c>
       <c r="C32" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1129-6455</v>
+        <v>010-5277-7900</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>345</v>
@@ -3033,13 +2892,11 @@
       <c r="F32" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G32" s="15" t="str">
-        <f>VLOOKUP(F32,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H32" s="16" t="str">
-        <f>VLOOKUP(F32,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G32" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -3051,7 +2908,7 @@
       </c>
       <c r="C33" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1858-2166</v>
+        <v>010-3318-7839</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>193</v>
@@ -3062,13 +2919,11 @@
       <c r="F33" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G33" s="15" t="str">
-        <f>VLOOKUP(F33,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H33" s="16" t="str">
-        <f>VLOOKUP(F33,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G33" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H33" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -3080,7 +2935,7 @@
       </c>
       <c r="C34" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4021-2459</v>
+        <v>010-1328-7691</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>191</v>
@@ -3091,13 +2946,11 @@
       <c r="F34" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G34" s="15" t="str">
-        <f>VLOOKUP(F34,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H34" s="16" t="str">
-        <f>VLOOKUP(F34,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G34" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H34" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -3109,7 +2962,7 @@
       </c>
       <c r="C35" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3052-9400</v>
+        <v>010-8849-4796</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>189</v>
@@ -3120,13 +2973,11 @@
       <c r="F35" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G35" s="15" t="str">
-        <f>VLOOKUP(F35,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H35" s="16" t="str">
-        <f>VLOOKUP(F35,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G35" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H35" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -3138,7 +2989,7 @@
       </c>
       <c r="C36" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7389-9558</v>
+        <v>010-5968-2270</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>187</v>
@@ -3149,13 +3000,11 @@
       <c r="F36" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G36" s="15" t="str">
-        <f>VLOOKUP(F36,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H36" s="16" t="str">
-        <f>VLOOKUP(F36,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G36" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H36" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -3167,7 +3016,7 @@
       </c>
       <c r="C37" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5368-5750</v>
+        <v>010-2817-8342</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>185</v>
@@ -3178,13 +3027,11 @@
       <c r="F37" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G37" s="15" t="str">
-        <f>VLOOKUP(F37,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H37" s="16" t="str">
-        <f>VLOOKUP(F37,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G37" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H37" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -3196,7 +3043,7 @@
       </c>
       <c r="C38" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5677-6895</v>
+        <v>010-4613-7954</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>346</v>
@@ -3207,13 +3054,11 @@
       <c r="F38" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="G38" s="15" t="str">
-        <f>VLOOKUP(F38,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>법학</v>
-      </c>
-      <c r="H38" s="16" t="str">
-        <f>VLOOKUP(F38,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>킹스필드</v>
+      <c r="G38" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H38" s="16" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -3225,7 +3070,7 @@
       </c>
       <c r="C39" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3869-0669</v>
+        <v>010-6442-9046</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>348</v>
@@ -3236,13 +3081,11 @@
       <c r="F39" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G39" s="15" t="str">
-        <f>VLOOKUP(F39,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H39" s="16" t="str">
-        <f>VLOOKUP(F39,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G39" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H39" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -3254,7 +3097,7 @@
       </c>
       <c r="C40" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4911-4552</v>
+        <v>010-4517-6383</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>349</v>
@@ -3265,13 +3108,11 @@
       <c r="F40" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G40" s="15" t="str">
-        <f>VLOOKUP(F40,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H40" s="16" t="str">
-        <f>VLOOKUP(F40,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G40" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H40" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -3283,7 +3124,7 @@
       </c>
       <c r="C41" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4826-9026</v>
+        <v>010-4110-4169</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>350</v>
@@ -3294,13 +3135,11 @@
       <c r="F41" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="G41" s="15" t="str">
-        <f>VLOOKUP(F41,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>무역학</v>
-      </c>
-      <c r="H41" s="16" t="str">
-        <f>VLOOKUP(F41,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>심하군</v>
+      <c r="G41" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H41" s="16" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -3312,7 +3151,7 @@
       </c>
       <c r="C42" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9050-1172</v>
+        <v>010-3180-8544</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>179</v>
@@ -3323,13 +3162,11 @@
       <c r="F42" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G42" s="15" t="str">
-        <f>VLOOKUP(F42,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H42" s="16" t="str">
-        <f>VLOOKUP(F42,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G42" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -3341,7 +3178,7 @@
       </c>
       <c r="C43" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5479-3139</v>
+        <v>010-8476-1567</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>177</v>
@@ -3352,13 +3189,11 @@
       <c r="F43" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G43" s="15" t="str">
-        <f>VLOOKUP(F43,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H43" s="16" t="str">
-        <f>VLOOKUP(F43,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G43" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -3370,7 +3205,7 @@
       </c>
       <c r="C44" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5033-3642</v>
+        <v>010-5653-2022</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>175</v>
@@ -3381,13 +3216,11 @@
       <c r="F44" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="G44" s="15" t="str">
-        <f>VLOOKUP(F44,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>법학</v>
-      </c>
-      <c r="H44" s="16" t="str">
-        <f>VLOOKUP(F44,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>킹스필드</v>
+      <c r="G44" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -3399,7 +3232,7 @@
       </c>
       <c r="C45" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2608-8680</v>
+        <v>010-1624-7420</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>173</v>
@@ -3410,13 +3243,11 @@
       <c r="F45" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G45" s="15" t="str">
-        <f>VLOOKUP(F45,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H45" s="16" t="str">
-        <f>VLOOKUP(F45,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G45" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H45" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -3428,7 +3259,7 @@
       </c>
       <c r="C46" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7041-2193</v>
+        <v>010-1289-0077</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>352</v>
@@ -3439,13 +3270,11 @@
       <c r="F46" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="G46" s="15" t="str">
-        <f>VLOOKUP(F46,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>국어국문</v>
-      </c>
-      <c r="H46" s="16" t="str">
-        <f>VLOOKUP(F46,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>백석기</v>
+      <c r="G46" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H46" s="16" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -3457,7 +3286,7 @@
       </c>
       <c r="C47" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6411-1846</v>
+        <v>010-2909-0533</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>353</v>
@@ -3468,13 +3297,11 @@
       <c r="F47" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G47" s="15" t="str">
-        <f>VLOOKUP(F47,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H47" s="16" t="str">
-        <f>VLOOKUP(F47,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G47" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H47" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -3486,7 +3313,7 @@
       </c>
       <c r="C48" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3681-4327</v>
+        <v>010-5728-0910</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>354</v>
@@ -3497,13 +3324,11 @@
       <c r="F48" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G48" s="15" t="str">
-        <f>VLOOKUP(F48,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H48" s="16" t="str">
-        <f>VLOOKUP(F48,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G48" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H48" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -3515,7 +3340,7 @@
       </c>
       <c r="C49" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9356-4109</v>
+        <v>010-2816-9452</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>355</v>
@@ -3526,13 +3351,11 @@
       <c r="F49" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G49" s="15" t="str">
-        <f>VLOOKUP(F49,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H49" s="16" t="str">
-        <f>VLOOKUP(F49,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G49" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -3544,7 +3367,7 @@
       </c>
       <c r="C50" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7896-8809</v>
+        <v>010-9852-8156</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>167</v>
@@ -3555,13 +3378,11 @@
       <c r="F50" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G50" s="15" t="str">
-        <f>VLOOKUP(F50,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H50" s="16" t="str">
-        <f>VLOOKUP(F50,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G50" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H50" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -3573,7 +3394,7 @@
       </c>
       <c r="C51" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1769-8245</v>
+        <v>010-1187-1510</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>165</v>
@@ -3584,13 +3405,11 @@
       <c r="F51" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G51" s="15" t="str">
-        <f>VLOOKUP(F51,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H51" s="16" t="str">
-        <f>VLOOKUP(F51,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G51" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H51" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -3602,7 +3421,7 @@
       </c>
       <c r="C52" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6451-4816</v>
+        <v>010-1922-4422</v>
       </c>
       <c r="D52" s="31" t="s">
         <v>163</v>
@@ -3613,13 +3432,11 @@
       <c r="F52" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G52" s="15" t="str">
-        <f>VLOOKUP(F52,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>미술학</v>
-      </c>
-      <c r="H52" s="16" t="str">
-        <f>VLOOKUP(F52,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>필리스</v>
+      <c r="G52" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H52" s="16" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -3631,7 +3448,7 @@
       </c>
       <c r="C53" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9860-1172</v>
+        <v>010-2933-3573</v>
       </c>
       <c r="D53" s="31" t="s">
         <v>161</v>
@@ -3642,13 +3459,11 @@
       <c r="F53" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="G53" s="15" t="str">
-        <f>VLOOKUP(F53,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>무역학</v>
-      </c>
-      <c r="H53" s="16" t="str">
-        <f>VLOOKUP(F53,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>심하군</v>
+      <c r="G53" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H53" s="16" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -3660,7 +3475,7 @@
       </c>
       <c r="C54" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8780-5500</v>
+        <v>010-5692-9979</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>356</v>
@@ -3671,13 +3486,11 @@
       <c r="F54" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="G54" s="15" t="str">
-        <f>VLOOKUP(F54,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>국어국문</v>
-      </c>
-      <c r="H54" s="16" t="str">
-        <f>VLOOKUP(F54,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>백석기</v>
+      <c r="G54" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H54" s="16" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -3689,7 +3502,7 @@
       </c>
       <c r="C55" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2127-2045</v>
+        <v>010-4419-8609</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>357</v>
@@ -3700,13 +3513,11 @@
       <c r="F55" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="G55" s="15" t="str">
-        <f>VLOOKUP(F55,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>법학</v>
-      </c>
-      <c r="H55" s="16" t="str">
-        <f>VLOOKUP(F55,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>킹스필드</v>
+      <c r="G55" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H55" s="16" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -3718,7 +3529,7 @@
       </c>
       <c r="C56" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1547-4042</v>
+        <v>010-1348-2443</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>157</v>
@@ -3729,13 +3540,11 @@
       <c r="F56" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="G56" s="15" t="str">
-        <f>VLOOKUP(F56,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>국어국문</v>
-      </c>
-      <c r="H56" s="16" t="str">
-        <f>VLOOKUP(F56,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>백석기</v>
+      <c r="G56" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H56" s="16" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -3747,7 +3556,7 @@
       </c>
       <c r="C57" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6584-3557</v>
+        <v>010-5525-6572</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>358</v>
@@ -3758,13 +3567,11 @@
       <c r="F57" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G57" s="15" t="str">
-        <f>VLOOKUP(F57,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H57" s="16" t="str">
-        <f>VLOOKUP(F57,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G57" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H57" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -3776,7 +3583,7 @@
       </c>
       <c r="C58" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8214-8059</v>
+        <v>010-9088-8297</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>154</v>
@@ -3787,13 +3594,11 @@
       <c r="F58" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="G58" s="15" t="str">
-        <f>VLOOKUP(F58,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>관광학</v>
-      </c>
-      <c r="H58" s="16" t="str">
-        <f>VLOOKUP(F58,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이한우</v>
+      <c r="G58" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H58" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -3805,7 +3610,7 @@
       </c>
       <c r="C59" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2594-7148</v>
+        <v>010-1107-8599</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>359</v>
@@ -3816,13 +3621,11 @@
       <c r="F59" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G59" s="15" t="str">
-        <f>VLOOKUP(F59,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H59" s="16" t="str">
-        <f>VLOOKUP(F59,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G59" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H59" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -3834,7 +3637,7 @@
       </c>
       <c r="C60" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9491-4913</v>
+        <v>010-2057-5675</v>
       </c>
       <c r="D60" s="31" t="s">
         <v>360</v>
@@ -3845,13 +3648,11 @@
       <c r="F60" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G60" s="15" t="str">
-        <f>VLOOKUP(F60,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H60" s="16" t="str">
-        <f>VLOOKUP(F60,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G60" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H60" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -3863,7 +3664,7 @@
       </c>
       <c r="C61" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1404-7472</v>
+        <v>010-1913-8056</v>
       </c>
       <c r="D61" s="31" t="s">
         <v>150</v>
@@ -3874,13 +3675,11 @@
       <c r="F61" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G61" s="15" t="str">
-        <f>VLOOKUP(F61,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H61" s="16" t="str">
-        <f>VLOOKUP(F61,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G61" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H61" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -3892,7 +3691,7 @@
       </c>
       <c r="C62" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5840-6247</v>
+        <v>010-4943-8155</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>361</v>
@@ -3903,13 +3702,11 @@
       <c r="F62" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="G62" s="15" t="str">
-        <f>VLOOKUP(F62,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H62" s="16" t="str">
-        <f>VLOOKUP(F62,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G62" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H62" s="16" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -3921,7 +3718,7 @@
       </c>
       <c r="C63" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7632-8810</v>
+        <v>010-2051-3503</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>147</v>
@@ -3932,13 +3729,11 @@
       <c r="F63" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G63" s="15" t="str">
-        <f>VLOOKUP(F63,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H63" s="16" t="str">
-        <f>VLOOKUP(F63,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G63" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H63" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -3950,7 +3745,7 @@
       </c>
       <c r="C64" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3452-5757</v>
+        <v>010-7531-4807</v>
       </c>
       <c r="D64" s="31" t="s">
         <v>145</v>
@@ -3961,13 +3756,11 @@
       <c r="F64" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G64" s="15" t="str">
-        <f>VLOOKUP(F64,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H64" s="16" t="str">
-        <f>VLOOKUP(F64,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G64" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H64" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3979,7 +3772,7 @@
       </c>
       <c r="C65" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8263-5834</v>
+        <v>010-2500-6964</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>143</v>
@@ -3990,13 +3783,11 @@
       <c r="F65" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G65" s="15" t="str">
-        <f>VLOOKUP(F65,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H65" s="16" t="str">
-        <f>VLOOKUP(F65,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G65" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H65" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -4008,7 +3799,7 @@
       </c>
       <c r="C66" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9577-3231</v>
+        <v>010-5346-7826</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>141</v>
@@ -4019,13 +3810,11 @@
       <c r="F66" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="G66" s="15" t="str">
-        <f>VLOOKUP(F66,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H66" s="16" t="str">
-        <f>VLOOKUP(F66,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G66" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H66" s="16" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -4037,7 +3826,7 @@
       </c>
       <c r="C67" s="15" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-5589-6017</v>
+        <v>010-2965-7845</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>139</v>
@@ -4048,13 +3837,11 @@
       <c r="F67" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G67" s="15" t="str">
-        <f>VLOOKUP(F67,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H67" s="16" t="str">
-        <f>VLOOKUP(F67,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G67" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H67" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -4066,7 +3853,7 @@
       </c>
       <c r="C68" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6227-1839</v>
+        <v>010-2652-2565</v>
       </c>
       <c r="D68" s="31" t="s">
         <v>137</v>
@@ -4077,13 +3864,11 @@
       <c r="F68" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="G68" s="15" t="str">
-        <f>VLOOKUP(F68,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>법학</v>
-      </c>
-      <c r="H68" s="16" t="str">
-        <f>VLOOKUP(F68,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>킹스필드</v>
+      <c r="G68" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H68" s="16" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -4095,7 +3880,7 @@
       </c>
       <c r="C69" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2047-2330</v>
+        <v>010-6760-3468</v>
       </c>
       <c r="D69" s="31" t="s">
         <v>362</v>
@@ -4106,13 +3891,11 @@
       <c r="F69" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G69" s="15" t="str">
-        <f>VLOOKUP(F69,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H69" s="16" t="str">
-        <f>VLOOKUP(F69,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G69" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H69" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -4124,7 +3907,7 @@
       </c>
       <c r="C70" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9324-1762</v>
+        <v>010-5241-1508</v>
       </c>
       <c r="D70" s="31" t="s">
         <v>134</v>
@@ -4135,13 +3918,11 @@
       <c r="F70" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="G70" s="15" t="str">
-        <f>VLOOKUP(F70,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>관광학</v>
-      </c>
-      <c r="H70" s="16" t="str">
-        <f>VLOOKUP(F70,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이한우</v>
+      <c r="G70" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H70" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -4153,7 +3934,7 @@
       </c>
       <c r="C71" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3601-6398</v>
+        <v>010-4324-7057</v>
       </c>
       <c r="D71" s="31" t="s">
         <v>363</v>
@@ -4164,13 +3945,11 @@
       <c r="F71" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G71" s="15" t="str">
-        <f>VLOOKUP(F71,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H71" s="16" t="str">
-        <f>VLOOKUP(F71,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G71" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H71" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -4182,7 +3961,7 @@
       </c>
       <c r="C72" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6331-4028</v>
+        <v>010-5533-2092</v>
       </c>
       <c r="D72" s="31" t="s">
         <v>131</v>
@@ -4193,13 +3972,11 @@
       <c r="F72" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G72" s="15" t="str">
-        <f>VLOOKUP(F72,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>미술학</v>
-      </c>
-      <c r="H72" s="16" t="str">
-        <f>VLOOKUP(F72,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>필리스</v>
+      <c r="G72" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H72" s="16" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -4211,7 +3988,7 @@
       </c>
       <c r="C73" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6302-4792</v>
+        <v>010-9327-3777</v>
       </c>
       <c r="D73" s="31" t="s">
         <v>129</v>
@@ -4222,13 +3999,11 @@
       <c r="F73" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="G73" s="15" t="str">
-        <f>VLOOKUP(F73,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>관광학</v>
-      </c>
-      <c r="H73" s="16" t="str">
-        <f>VLOOKUP(F73,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이한우</v>
+      <c r="G73" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -4240,7 +4015,7 @@
       </c>
       <c r="C74" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5181-0203</v>
+        <v>010-4395-7157</v>
       </c>
       <c r="D74" s="31" t="s">
         <v>127</v>
@@ -4251,13 +4026,11 @@
       <c r="F74" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G74" s="15" t="str">
-        <f>VLOOKUP(F74,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H74" s="16" t="str">
-        <f>VLOOKUP(F74,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G74" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -4269,7 +4042,7 @@
       </c>
       <c r="C75" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1334-7590</v>
+        <v>010-5491-9306</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>125</v>
@@ -4280,13 +4053,11 @@
       <c r="F75" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="G75" s="15" t="str">
-        <f>VLOOKUP(F75,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H75" s="16" t="str">
-        <f>VLOOKUP(F75,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G75" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -4298,7 +4069,7 @@
       </c>
       <c r="C76" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9120-9723</v>
+        <v>010-1043-6166</v>
       </c>
       <c r="D76" s="31" t="s">
         <v>364</v>
@@ -4309,13 +4080,11 @@
       <c r="F76" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="G76" s="15" t="str">
-        <f>VLOOKUP(F76,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>무역학</v>
-      </c>
-      <c r="H76" s="16" t="str">
-        <f>VLOOKUP(F76,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>심하군</v>
+      <c r="G76" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -4327,7 +4096,7 @@
       </c>
       <c r="C77" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5774-1768</v>
+        <v>010-2100-6420</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>365</v>
@@ -4338,13 +4107,11 @@
       <c r="F77" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G77" s="15" t="str">
-        <f>VLOOKUP(F77,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H77" s="16" t="str">
-        <f>VLOOKUP(F77,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G77" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -4356,7 +4123,7 @@
       </c>
       <c r="C78" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1486-2183</v>
+        <v>010-7386-4658</v>
       </c>
       <c r="D78" s="31" t="s">
         <v>121</v>
@@ -4367,13 +4134,11 @@
       <c r="F78" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G78" s="15" t="str">
-        <f>VLOOKUP(F78,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H78" s="16" t="str">
-        <f>VLOOKUP(F78,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G78" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H78" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -4385,7 +4150,7 @@
       </c>
       <c r="C79" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9090-7378</v>
+        <v>010-5525-7022</v>
       </c>
       <c r="D79" s="31" t="s">
         <v>366</v>
@@ -4396,13 +4161,11 @@
       <c r="F79" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G79" s="15" t="str">
-        <f>VLOOKUP(F79,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H79" s="16" t="str">
-        <f>VLOOKUP(F79,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G79" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H79" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -4414,7 +4177,7 @@
       </c>
       <c r="C80" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3946-2375</v>
+        <v>010-8140-5284</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>367</v>
@@ -4425,13 +4188,11 @@
       <c r="F80" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="G80" s="15" t="str">
-        <f>VLOOKUP(F80,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>국어국문</v>
-      </c>
-      <c r="H80" s="16" t="str">
-        <f>VLOOKUP(F80,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>백석기</v>
+      <c r="G80" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H80" s="16" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -4443,7 +4204,7 @@
       </c>
       <c r="C81" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7205-6898</v>
+        <v>010-1995-5537</v>
       </c>
       <c r="D81" s="31" t="s">
         <v>368</v>
@@ -4454,13 +4215,11 @@
       <c r="F81" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G81" s="15" t="str">
-        <f>VLOOKUP(F81,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H81" s="16" t="str">
-        <f>VLOOKUP(F81,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G81" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H81" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -4472,7 +4231,7 @@
       </c>
       <c r="C82" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7840-2426</v>
+        <v>010-6261-8009</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>369</v>
@@ -4483,13 +4242,11 @@
       <c r="F82" s="30" t="s">
         <v>325</v>
       </c>
-      <c r="G82" s="15" t="str">
-        <f>VLOOKUP(F82,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H82" s="16" t="str">
-        <f>VLOOKUP(F82,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G82" s="15" t="s">
+        <v>393</v>
+      </c>
+      <c r="H82" s="16" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -4501,7 +4258,7 @@
       </c>
       <c r="C83" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8298-6832</v>
+        <v>010-7021-0054</v>
       </c>
       <c r="D83" s="31" t="s">
         <v>370</v>
@@ -4512,13 +4269,11 @@
       <c r="F83" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G83" s="15" t="str">
-        <f>VLOOKUP(F83,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H83" s="16" t="str">
-        <f>VLOOKUP(F83,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G83" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H83" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -4530,7 +4285,7 @@
       </c>
       <c r="C84" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3602-4319</v>
+        <v>010-2873-8961</v>
       </c>
       <c r="D84" s="31" t="s">
         <v>371</v>
@@ -4541,13 +4296,11 @@
       <c r="F84" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G84" s="15" t="str">
-        <f>VLOOKUP(F84,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>미술학</v>
-      </c>
-      <c r="H84" s="16" t="str">
-        <f>VLOOKUP(F84,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>필리스</v>
+      <c r="G84" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H84" s="16" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -4559,7 +4312,7 @@
       </c>
       <c r="C85" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1075-1193</v>
+        <v>010-2005-8127</v>
       </c>
       <c r="D85" s="31" t="s">
         <v>372</v>
@@ -4570,13 +4323,11 @@
       <c r="F85" s="30" t="s">
         <v>351</v>
       </c>
-      <c r="G85" s="15" t="str">
-        <f>VLOOKUP(F85,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>무역학</v>
-      </c>
-      <c r="H85" s="16" t="str">
-        <f>VLOOKUP(F85,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>심하군</v>
+      <c r="G85" s="15" t="s">
+        <v>407</v>
+      </c>
+      <c r="H85" s="16" t="s">
+        <v>408</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -4588,7 +4339,7 @@
       </c>
       <c r="C86" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1390-3066</v>
+        <v>010-5029-5628</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>373</v>
@@ -4599,13 +4350,11 @@
       <c r="F86" s="30" t="s">
         <v>330</v>
       </c>
-      <c r="G86" s="15" t="str">
-        <f>VLOOKUP(F86,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>국어국문</v>
-      </c>
-      <c r="H86" s="16" t="str">
-        <f>VLOOKUP(F86,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>백석기</v>
+      <c r="G86" s="15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H86" s="16" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -4617,7 +4366,7 @@
       </c>
       <c r="C87" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2912-6625</v>
+        <v>010-6150-8596</v>
       </c>
       <c r="D87" s="31" t="s">
         <v>374</v>
@@ -4628,13 +4377,11 @@
       <c r="F87" s="30" t="s">
         <v>328</v>
       </c>
-      <c r="G87" s="15" t="str">
-        <f>VLOOKUP(F87,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>전자공학</v>
-      </c>
-      <c r="H87" s="16" t="str">
-        <f>VLOOKUP(F87,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이철기</v>
+      <c r="G87" s="15" t="s">
+        <v>397</v>
+      </c>
+      <c r="H87" s="16" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -4646,7 +4393,7 @@
       </c>
       <c r="C88" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8981-8210</v>
+        <v>010-3262-1881</v>
       </c>
       <c r="D88" s="31" t="s">
         <v>375</v>
@@ -4657,13 +4404,11 @@
       <c r="F88" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G88" s="15" t="str">
-        <f>VLOOKUP(F88,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>미술학</v>
-      </c>
-      <c r="H88" s="16" t="str">
-        <f>VLOOKUP(F88,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>필리스</v>
+      <c r="G88" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H88" s="16" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -4675,7 +4420,7 @@
       </c>
       <c r="C89" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1671-4422</v>
+        <v>010-7093-5943</v>
       </c>
       <c r="D89" s="31" t="s">
         <v>376</v>
@@ -4686,13 +4431,11 @@
       <c r="F89" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G89" s="15" t="str">
-        <f>VLOOKUP(F89,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H89" s="16" t="str">
-        <f>VLOOKUP(F89,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G89" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H89" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -4704,7 +4447,7 @@
       </c>
       <c r="C90" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5416-0761</v>
+        <v>010-4120-3508</v>
       </c>
       <c r="D90" s="31" t="s">
         <v>377</v>
@@ -4715,13 +4458,11 @@
       <c r="F90" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G90" s="15" t="str">
-        <f>VLOOKUP(F90,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H90" s="16" t="str">
-        <f>VLOOKUP(F90,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G90" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H90" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -4733,7 +4474,7 @@
       </c>
       <c r="C91" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8965-6168</v>
+        <v>010-2270-8633</v>
       </c>
       <c r="D91" s="31" t="s">
         <v>378</v>
@@ -4744,13 +4485,11 @@
       <c r="F91" s="30" t="s">
         <v>322</v>
       </c>
-      <c r="G91" s="15" t="str">
-        <f>VLOOKUP(F91,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>미술학</v>
-      </c>
-      <c r="H91" s="16" t="str">
-        <f>VLOOKUP(F91,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>필리스</v>
+      <c r="G91" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="H91" s="16" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -4762,7 +4501,7 @@
       </c>
       <c r="C92" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6003-7211</v>
+        <v>010-7325-1169</v>
       </c>
       <c r="D92" s="31" t="s">
         <v>379</v>
@@ -4773,13 +4512,11 @@
       <c r="F92" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="G92" s="15" t="str">
-        <f>VLOOKUP(F92,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>관광학</v>
-      </c>
-      <c r="H92" s="16" t="str">
-        <f>VLOOKUP(F92,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이한우</v>
+      <c r="G92" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H92" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -4791,7 +4528,7 @@
       </c>
       <c r="C93" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8412-3721</v>
+        <v>010-4848-6259</v>
       </c>
       <c r="D93" s="31" t="s">
         <v>380</v>
@@ -4802,13 +4539,11 @@
       <c r="F93" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="G93" s="15" t="str">
-        <f>VLOOKUP(F93,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>법학</v>
-      </c>
-      <c r="H93" s="16" t="str">
-        <f>VLOOKUP(F93,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>킹스필드</v>
+      <c r="G93" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H93" s="16" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -4820,7 +4555,7 @@
       </c>
       <c r="C94" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6593-9726</v>
+        <v>010-7795-3288</v>
       </c>
       <c r="D94" s="31" t="s">
         <v>381</v>
@@ -4831,13 +4566,11 @@
       <c r="F94" s="30" t="s">
         <v>323</v>
       </c>
-      <c r="G94" s="15" t="str">
-        <f>VLOOKUP(F94,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>영어영문</v>
-      </c>
-      <c r="H94" s="16" t="str">
-        <f>VLOOKUP(F94,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>권오순</v>
+      <c r="G94" s="15" t="s">
+        <v>391</v>
+      </c>
+      <c r="H94" s="16" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -4849,7 +4582,7 @@
       </c>
       <c r="C95" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5631-3111</v>
+        <v>010-5238-0262</v>
       </c>
       <c r="D95" s="31" t="s">
         <v>382</v>
@@ -4860,13 +4593,11 @@
       <c r="F95" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="G95" s="15" t="str">
-        <f>VLOOKUP(F95,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>법학</v>
-      </c>
-      <c r="H95" s="16" t="str">
-        <f>VLOOKUP(F95,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>킹스필드</v>
+      <c r="G95" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H95" s="16" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -4878,7 +4609,7 @@
       </c>
       <c r="C96" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4401-0980</v>
+        <v>010-2754-5133</v>
       </c>
       <c r="D96" s="31" t="s">
         <v>383</v>
@@ -4889,13 +4620,11 @@
       <c r="F96" s="30" t="s">
         <v>327</v>
       </c>
-      <c r="G96" s="15" t="str">
-        <f>VLOOKUP(F96,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>정보통신공학</v>
-      </c>
-      <c r="H96" s="16" t="str">
-        <f>VLOOKUP(F96,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>최양록</v>
+      <c r="G96" s="15" t="s">
+        <v>395</v>
+      </c>
+      <c r="H96" s="16" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -4907,7 +4636,7 @@
       </c>
       <c r="C97" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9835-8240</v>
+        <v>010-5377-3923</v>
       </c>
       <c r="D97" s="31" t="s">
         <v>384</v>
@@ -4918,13 +4647,11 @@
       <c r="F97" s="30" t="s">
         <v>333</v>
       </c>
-      <c r="G97" s="15" t="str">
-        <f>VLOOKUP(F97,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>컴퓨터공학</v>
-      </c>
-      <c r="H97" s="16" t="str">
-        <f>VLOOKUP(F97,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>토발즈</v>
+      <c r="G97" s="15" t="s">
+        <v>401</v>
+      </c>
+      <c r="H97" s="16" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -4936,7 +4663,7 @@
       </c>
       <c r="C98" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7404-0431</v>
+        <v>010-7947-5240</v>
       </c>
       <c r="D98" s="31" t="s">
         <v>385</v>
@@ -4947,13 +4674,11 @@
       <c r="F98" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="G98" s="15" t="str">
-        <f>VLOOKUP(F98,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>법학</v>
-      </c>
-      <c r="H98" s="16" t="str">
-        <f>VLOOKUP(F98,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>킹스필드</v>
+      <c r="G98" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H98" s="16" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -4965,7 +4690,7 @@
       </c>
       <c r="C99" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9980-0327</v>
+        <v>010-1479-2070</v>
       </c>
       <c r="D99" s="31" t="s">
         <v>386</v>
@@ -4976,13 +4701,11 @@
       <c r="F99" s="30" t="s">
         <v>347</v>
       </c>
-      <c r="G99" s="15" t="str">
-        <f>VLOOKUP(F99,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>법학</v>
-      </c>
-      <c r="H99" s="16" t="str">
-        <f>VLOOKUP(F99,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>킹스필드</v>
+      <c r="G99" s="15" t="s">
+        <v>405</v>
+      </c>
+      <c r="H99" s="16" t="s">
+        <v>406</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -4994,7 +4717,7 @@
       </c>
       <c r="C100" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6080-5405</v>
+        <v>010-5594-4039</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>387</v>
@@ -5005,13 +4728,11 @@
       <c r="F100" s="30" t="s">
         <v>335</v>
       </c>
-      <c r="G100" s="15" t="str">
-        <f>VLOOKUP(F100,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>관광학</v>
-      </c>
-      <c r="H100" s="16" t="str">
-        <f>VLOOKUP(F100,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>이한우</v>
+      <c r="G100" s="15" t="s">
+        <v>403</v>
+      </c>
+      <c r="H100" s="16" t="s">
+        <v>404</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -5023,7 +4744,7 @@
       </c>
       <c r="C101" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3337-8803</v>
+        <v>010-5142-2246</v>
       </c>
       <c r="D101" s="33" t="s">
         <v>388</v>
@@ -5034,13 +4755,11 @@
       <c r="F101" s="32" t="s">
         <v>325</v>
       </c>
-      <c r="G101" s="19" t="str">
-        <f>VLOOKUP(F101,[1]학과정보!$A$2:$B$11,2,FALSE)</f>
-        <v>고전음악학</v>
-      </c>
-      <c r="H101" s="20" t="str">
-        <f>VLOOKUP(F101,[1]학과정보!$A$2:$C$11,3,FALSE)</f>
-        <v>파파로티</v>
+      <c r="G101" s="19" t="s">
+        <v>393</v>
+      </c>
+      <c r="H101" s="20" t="s">
+        <v>394</v>
       </c>
     </row>
   </sheetData>

--- a/샘플데이터/학사_성적데이터/샘플-학사정보데이터(2022-05-04).xlsx
+++ b/샘플데이터/학사_성적데이터/샘플-학사정보데이터(2022-05-04).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\callor\Documents\workspace\Reference 자료\샘플데이터\학사_성적데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6618BE5-CD94-44E8-99AF-43BB1AEFE0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{986391EE-EABA-471A-87B7-91489FE8FE38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보" sheetId="7" r:id="rId1"/>
@@ -2020,7 +2020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E585B04C-51EB-4BDC-A7A1-1444FC14A994}">
   <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -2071,7 +2071,7 @@
       </c>
       <c r="C2" s="10" t="str">
         <f ca="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-7503-5437</v>
+        <v>010-8765-0325</v>
       </c>
       <c r="D2" s="28" t="s">
         <v>239</v>
@@ -2098,7 +2098,7 @@
       </c>
       <c r="C3" s="10" t="str">
         <f t="shared" ref="C3:C66" ca="1" si="0">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-6827-0688</v>
+        <v>010-5793-2240</v>
       </c>
       <c r="D3" s="28" t="s">
         <v>237</v>
@@ -2125,7 +2125,7 @@
       </c>
       <c r="C4" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1242-4537</v>
+        <v>010-6903-6230</v>
       </c>
       <c r="D4" s="28" t="s">
         <v>324</v>
@@ -2152,7 +2152,7 @@
       </c>
       <c r="C5" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2972-7170</v>
+        <v>010-2758-0085</v>
       </c>
       <c r="D5" s="28" t="s">
         <v>326</v>
@@ -2179,7 +2179,7 @@
       </c>
       <c r="C6" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4899-0752</v>
+        <v>010-7080-6864</v>
       </c>
       <c r="D6" s="28" t="s">
         <v>233</v>
@@ -2206,7 +2206,7 @@
       </c>
       <c r="C7" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7811-8510</v>
+        <v>010-1017-8351</v>
       </c>
       <c r="D7" s="28" t="s">
         <v>231</v>
@@ -2233,7 +2233,7 @@
       </c>
       <c r="C8" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1820-0748</v>
+        <v>010-5512-6601</v>
       </c>
       <c r="D8" s="28" t="s">
         <v>329</v>
@@ -2260,7 +2260,7 @@
       </c>
       <c r="C9" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2416-9155</v>
+        <v>010-7925-3436</v>
       </c>
       <c r="D9" s="28" t="s">
         <v>228</v>
@@ -2287,7 +2287,7 @@
       </c>
       <c r="C10" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6741-5474</v>
+        <v>010-5688-2276</v>
       </c>
       <c r="D10" s="28" t="s">
         <v>226</v>
@@ -2314,7 +2314,7 @@
       </c>
       <c r="C11" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7317-8825</v>
+        <v>010-8032-2830</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>331</v>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="C12" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8625-9290</v>
+        <v>010-9941-9760</v>
       </c>
       <c r="D12" s="28" t="s">
         <v>332</v>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="C13" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3599-8769</v>
+        <v>010-5308-9606</v>
       </c>
       <c r="D13" s="28" t="s">
         <v>222</v>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="C14" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6504-3224</v>
+        <v>010-6198-2583</v>
       </c>
       <c r="D14" s="28" t="s">
         <v>334</v>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="C15" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6425-7894</v>
+        <v>010-5026-9355</v>
       </c>
       <c r="D15" s="28" t="s">
         <v>219</v>
@@ -2449,7 +2449,7 @@
       </c>
       <c r="C16" s="10" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3998-3081</v>
+        <v>010-8896-9227</v>
       </c>
       <c r="D16" s="28" t="s">
         <v>217</v>
@@ -2476,7 +2476,7 @@
       </c>
       <c r="C17" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7780-8281</v>
+        <v>010-7434-3601</v>
       </c>
       <c r="D17" s="31" t="s">
         <v>215</v>
@@ -2503,7 +2503,7 @@
       </c>
       <c r="C18" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8676-9851</v>
+        <v>010-9264-6235</v>
       </c>
       <c r="D18" s="31" t="s">
         <v>336</v>
@@ -2530,7 +2530,7 @@
       </c>
       <c r="C19" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4369-8513</v>
+        <v>010-2186-0174</v>
       </c>
       <c r="D19" s="31" t="s">
         <v>337</v>
@@ -2557,7 +2557,7 @@
       </c>
       <c r="C20" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1798-3493</v>
+        <v>010-6310-4640</v>
       </c>
       <c r="D20" s="31" t="s">
         <v>338</v>
@@ -2584,7 +2584,7 @@
       </c>
       <c r="C21" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6393-7120</v>
+        <v>010-3992-6720</v>
       </c>
       <c r="D21" s="31" t="s">
         <v>339</v>
@@ -2611,7 +2611,7 @@
       </c>
       <c r="C22" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2472-1549</v>
+        <v>010-7886-0881</v>
       </c>
       <c r="D22" s="31" t="s">
         <v>340</v>
@@ -2638,7 +2638,7 @@
       </c>
       <c r="C23" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8366-2147</v>
+        <v>010-6716-9622</v>
       </c>
       <c r="D23" s="31" t="s">
         <v>341</v>
@@ -2665,7 +2665,7 @@
       </c>
       <c r="C24" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7382-9799</v>
+        <v>010-7509-4761</v>
       </c>
       <c r="D24" s="31" t="s">
         <v>207</v>
@@ -2692,7 +2692,7 @@
       </c>
       <c r="C25" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2234-8897</v>
+        <v>010-5825-3117</v>
       </c>
       <c r="D25" s="31" t="s">
         <v>205</v>
@@ -2719,7 +2719,7 @@
       </c>
       <c r="C26" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6996-6033</v>
+        <v>010-5612-4104</v>
       </c>
       <c r="D26" s="31" t="s">
         <v>203</v>
@@ -2746,7 +2746,7 @@
       </c>
       <c r="C27" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3375-4647</v>
+        <v>010-3691-1863</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>342</v>
@@ -2773,7 +2773,7 @@
       </c>
       <c r="C28" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8691-0538</v>
+        <v>010-6345-8364</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>343</v>
@@ -2800,7 +2800,7 @@
       </c>
       <c r="C29" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4405-8873</v>
+        <v>010-2947-4501</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>344</v>
@@ -2827,7 +2827,7 @@
       </c>
       <c r="C30" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8434-9760</v>
+        <v>010-9633-9819</v>
       </c>
       <c r="D30" s="31" t="s">
         <v>198</v>
@@ -2854,7 +2854,7 @@
       </c>
       <c r="C31" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1712-6190</v>
+        <v>010-1827-7239</v>
       </c>
       <c r="D31" s="31" t="s">
         <v>196</v>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="C32" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5277-7900</v>
+        <v>010-7866-4517</v>
       </c>
       <c r="D32" s="31" t="s">
         <v>345</v>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="C33" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3318-7839</v>
+        <v>010-8935-0412</v>
       </c>
       <c r="D33" s="31" t="s">
         <v>193</v>
@@ -2935,7 +2935,7 @@
       </c>
       <c r="C34" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1328-7691</v>
+        <v>010-3836-9730</v>
       </c>
       <c r="D34" s="31" t="s">
         <v>191</v>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="C35" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8849-4796</v>
+        <v>010-3760-0954</v>
       </c>
       <c r="D35" s="31" t="s">
         <v>189</v>
@@ -2989,7 +2989,7 @@
       </c>
       <c r="C36" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5968-2270</v>
+        <v>010-6891-2342</v>
       </c>
       <c r="D36" s="31" t="s">
         <v>187</v>
@@ -3016,7 +3016,7 @@
       </c>
       <c r="C37" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2817-8342</v>
+        <v>010-8281-3020</v>
       </c>
       <c r="D37" s="31" t="s">
         <v>185</v>
@@ -3043,7 +3043,7 @@
       </c>
       <c r="C38" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4613-7954</v>
+        <v>010-9463-9664</v>
       </c>
       <c r="D38" s="31" t="s">
         <v>346</v>
@@ -3070,7 +3070,7 @@
       </c>
       <c r="C39" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-6442-9046</v>
+        <v>010-9046-3276</v>
       </c>
       <c r="D39" s="31" t="s">
         <v>348</v>
@@ -3097,7 +3097,7 @@
       </c>
       <c r="C40" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4517-6383</v>
+        <v>010-5596-8861</v>
       </c>
       <c r="D40" s="31" t="s">
         <v>349</v>
@@ -3124,7 +3124,7 @@
       </c>
       <c r="C41" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4110-4169</v>
+        <v>010-3785-2578</v>
       </c>
       <c r="D41" s="31" t="s">
         <v>350</v>
@@ -3151,7 +3151,7 @@
       </c>
       <c r="C42" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-3180-8544</v>
+        <v>010-7739-0406</v>
       </c>
       <c r="D42" s="31" t="s">
         <v>179</v>
@@ -3178,7 +3178,7 @@
       </c>
       <c r="C43" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-8476-1567</v>
+        <v>010-4812-8689</v>
       </c>
       <c r="D43" s="31" t="s">
         <v>177</v>
@@ -3205,7 +3205,7 @@
       </c>
       <c r="C44" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5653-2022</v>
+        <v>010-7856-6397</v>
       </c>
       <c r="D44" s="31" t="s">
         <v>175</v>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="C45" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1624-7420</v>
+        <v>010-4789-6473</v>
       </c>
       <c r="D45" s="31" t="s">
         <v>173</v>
@@ -3259,7 +3259,7 @@
       </c>
       <c r="C46" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1289-0077</v>
+        <v>010-8785-3218</v>
       </c>
       <c r="D46" s="31" t="s">
         <v>352</v>
@@ -3286,7 +3286,7 @@
       </c>
       <c r="C47" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2909-0533</v>
+        <v>010-8082-8495</v>
       </c>
       <c r="D47" s="31" t="s">
         <v>353</v>
@@ -3313,7 +3313,7 @@
       </c>
       <c r="C48" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5728-0910</v>
+        <v>010-6517-9537</v>
       </c>
       <c r="D48" s="31" t="s">
         <v>354</v>
@@ -3340,7 +3340,7 @@
       </c>
       <c r="C49" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2816-9452</v>
+        <v>010-2422-7006</v>
       </c>
       <c r="D49" s="31" t="s">
         <v>355</v>
@@ -3367,7 +3367,7 @@
       </c>
       <c r="C50" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9852-8156</v>
+        <v>010-5263-4294</v>
       </c>
       <c r="D50" s="31" t="s">
         <v>167</v>
@@ -3394,7 +3394,7 @@
       </c>
       <c r="C51" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1187-1510</v>
+        <v>010-3508-5432</v>
       </c>
       <c r="D51" s="31" t="s">
         <v>165</v>
@@ -3421,7 +3421,7 @@
       </c>
       <c r="C52" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1922-4422</v>
+        <v>010-2517-6428</v>
       </c>
       <c r="D52" s="31" t="s">
         <v>163</v>
@@ -3448,7 +3448,7 @@
       </c>
       <c r="C53" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2933-3573</v>
+        <v>010-2014-1980</v>
       </c>
       <c r="D53" s="31" t="s">
         <v>161</v>
@@ -3475,7 +3475,7 @@
       </c>
       <c r="C54" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5692-9979</v>
+        <v>010-1105-5829</v>
       </c>
       <c r="D54" s="31" t="s">
         <v>356</v>
@@ -3502,7 +3502,7 @@
       </c>
       <c r="C55" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4419-8609</v>
+        <v>010-4683-6328</v>
       </c>
       <c r="D55" s="31" t="s">
         <v>357</v>
@@ -3529,7 +3529,7 @@
       </c>
       <c r="C56" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1348-2443</v>
+        <v>010-8904-2681</v>
       </c>
       <c r="D56" s="31" t="s">
         <v>157</v>
@@ -3556,7 +3556,7 @@
       </c>
       <c r="C57" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5525-6572</v>
+        <v>010-1075-1136</v>
       </c>
       <c r="D57" s="31" t="s">
         <v>358</v>
@@ -3583,7 +3583,7 @@
       </c>
       <c r="C58" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-9088-8297</v>
+        <v>010-2716-2315</v>
       </c>
       <c r="D58" s="31" t="s">
         <v>154</v>
@@ -3610,7 +3610,7 @@
       </c>
       <c r="C59" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1107-8599</v>
+        <v>010-6475-4927</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>359</v>
@@ -3637,7 +3637,7 @@
       </c>
       <c r="C60" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2057-5675</v>
+        <v>010-5193-8483</v>
       </c>
       <c r="D60" s="31" t="s">
         <v>360</v>
@@ -3664,7 +3664,7 @@
       </c>
       <c r="C61" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-1913-8056</v>
+        <v>010-4238-3158</v>
       </c>
       <c r="D61" s="31" t="s">
         <v>150</v>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="C62" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-4943-8155</v>
+        <v>010-4055-6657</v>
       </c>
       <c r="D62" s="31" t="s">
         <v>361</v>
@@ -3718,7 +3718,7 @@
       </c>
       <c r="C63" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2051-3503</v>
+        <v>010-3991-1294</v>
       </c>
       <c r="D63" s="31" t="s">
         <v>147</v>
@@ -3745,7 +3745,7 @@
       </c>
       <c r="C64" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-7531-4807</v>
+        <v>010-7205-1498</v>
       </c>
       <c r="D64" s="31" t="s">
         <v>145</v>
@@ -3772,7 +3772,7 @@
       </c>
       <c r="C65" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-2500-6964</v>
+        <v>010-8964-9568</v>
       </c>
       <c r="D65" s="31" t="s">
         <v>143</v>
@@ -3799,7 +3799,7 @@
       </c>
       <c r="C66" s="15" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>010-5346-7826</v>
+        <v>010-7170-0868</v>
       </c>
       <c r="D66" s="31" t="s">
         <v>141</v>
@@ -3826,7 +3826,7 @@
       </c>
       <c r="C67" s="15" t="str">
         <f t="shared" ref="C67:C101" ca="1" si="1">"010" &amp; TEXT(RANDBETWEEN(10000000,99999999),"-0000-0000")</f>
-        <v>010-2965-7845</v>
+        <v>010-1432-8640</v>
       </c>
       <c r="D67" s="31" t="s">
         <v>139</v>
@@ -3853,7 +3853,7 @@
       </c>
       <c r="C68" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2652-2565</v>
+        <v>010-8433-3675</v>
       </c>
       <c r="D68" s="31" t="s">
         <v>137</v>
@@ -3880,7 +3880,7 @@
       </c>
       <c r="C69" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6760-3468</v>
+        <v>010-6796-1937</v>
       </c>
       <c r="D69" s="31" t="s">
         <v>362</v>
@@ -3907,7 +3907,7 @@
       </c>
       <c r="C70" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5241-1508</v>
+        <v>010-7635-3328</v>
       </c>
       <c r="D70" s="31" t="s">
         <v>134</v>
@@ -3934,7 +3934,7 @@
       </c>
       <c r="C71" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4324-7057</v>
+        <v>010-5866-9642</v>
       </c>
       <c r="D71" s="31" t="s">
         <v>363</v>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="C72" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5533-2092</v>
+        <v>010-6217-4010</v>
       </c>
       <c r="D72" s="31" t="s">
         <v>131</v>
@@ -3988,7 +3988,7 @@
       </c>
       <c r="C73" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-9327-3777</v>
+        <v>010-2752-8557</v>
       </c>
       <c r="D73" s="31" t="s">
         <v>129</v>
@@ -4015,7 +4015,7 @@
       </c>
       <c r="C74" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4395-7157</v>
+        <v>010-7971-0652</v>
       </c>
       <c r="D74" s="31" t="s">
         <v>127</v>
@@ -4042,7 +4042,7 @@
       </c>
       <c r="C75" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5491-9306</v>
+        <v>010-4314-6389</v>
       </c>
       <c r="D75" s="31" t="s">
         <v>125</v>
@@ -4069,7 +4069,7 @@
       </c>
       <c r="C76" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1043-6166</v>
+        <v>010-9942-1028</v>
       </c>
       <c r="D76" s="31" t="s">
         <v>364</v>
@@ -4096,7 +4096,7 @@
       </c>
       <c r="C77" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2100-6420</v>
+        <v>010-7250-4773</v>
       </c>
       <c r="D77" s="31" t="s">
         <v>365</v>
@@ -4123,7 +4123,7 @@
       </c>
       <c r="C78" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7386-4658</v>
+        <v>010-4845-5393</v>
       </c>
       <c r="D78" s="31" t="s">
         <v>121</v>
@@ -4150,7 +4150,7 @@
       </c>
       <c r="C79" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5525-7022</v>
+        <v>010-6680-5511</v>
       </c>
       <c r="D79" s="31" t="s">
         <v>366</v>
@@ -4177,7 +4177,7 @@
       </c>
       <c r="C80" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-8140-5284</v>
+        <v>010-6220-4804</v>
       </c>
       <c r="D80" s="31" t="s">
         <v>367</v>
@@ -4204,7 +4204,7 @@
       </c>
       <c r="C81" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1995-5537</v>
+        <v>010-6569-5741</v>
       </c>
       <c r="D81" s="31" t="s">
         <v>368</v>
@@ -4231,7 +4231,7 @@
       </c>
       <c r="C82" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6261-8009</v>
+        <v>010-2049-7671</v>
       </c>
       <c r="D82" s="31" t="s">
         <v>369</v>
@@ -4258,7 +4258,7 @@
       </c>
       <c r="C83" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7021-0054</v>
+        <v>010-7220-9584</v>
       </c>
       <c r="D83" s="31" t="s">
         <v>370</v>
@@ -4285,7 +4285,7 @@
       </c>
       <c r="C84" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2873-8961</v>
+        <v>010-7245-5691</v>
       </c>
       <c r="D84" s="31" t="s">
         <v>371</v>
@@ -4312,7 +4312,7 @@
       </c>
       <c r="C85" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2005-8127</v>
+        <v>010-7249-5321</v>
       </c>
       <c r="D85" s="31" t="s">
         <v>372</v>
@@ -4339,7 +4339,7 @@
       </c>
       <c r="C86" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5029-5628</v>
+        <v>010-4052-5669</v>
       </c>
       <c r="D86" s="31" t="s">
         <v>373</v>
@@ -4366,7 +4366,7 @@
       </c>
       <c r="C87" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-6150-8596</v>
+        <v>010-1744-7211</v>
       </c>
       <c r="D87" s="31" t="s">
         <v>374</v>
@@ -4393,7 +4393,7 @@
       </c>
       <c r="C88" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-3262-1881</v>
+        <v>010-5066-3886</v>
       </c>
       <c r="D88" s="31" t="s">
         <v>375</v>
@@ -4420,7 +4420,7 @@
       </c>
       <c r="C89" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7093-5943</v>
+        <v>010-7419-4581</v>
       </c>
       <c r="D89" s="31" t="s">
         <v>376</v>
@@ -4447,7 +4447,7 @@
       </c>
       <c r="C90" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4120-3508</v>
+        <v>010-2287-3101</v>
       </c>
       <c r="D90" s="31" t="s">
         <v>377</v>
@@ -4474,7 +4474,7 @@
       </c>
       <c r="C91" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2270-8633</v>
+        <v>010-2820-5357</v>
       </c>
       <c r="D91" s="31" t="s">
         <v>378</v>
@@ -4501,7 +4501,7 @@
       </c>
       <c r="C92" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7325-1169</v>
+        <v>010-1836-1523</v>
       </c>
       <c r="D92" s="31" t="s">
         <v>379</v>
@@ -4528,7 +4528,7 @@
       </c>
       <c r="C93" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-4848-6259</v>
+        <v>010-5174-4415</v>
       </c>
       <c r="D93" s="31" t="s">
         <v>380</v>
@@ -4555,7 +4555,7 @@
       </c>
       <c r="C94" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7795-3288</v>
+        <v>010-2752-3492</v>
       </c>
       <c r="D94" s="31" t="s">
         <v>381</v>
@@ -4582,7 +4582,7 @@
       </c>
       <c r="C95" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5238-0262</v>
+        <v>010-8359-5283</v>
       </c>
       <c r="D95" s="31" t="s">
         <v>382</v>
@@ -4609,7 +4609,7 @@
       </c>
       <c r="C96" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-2754-5133</v>
+        <v>010-8800-9831</v>
       </c>
       <c r="D96" s="31" t="s">
         <v>383</v>
@@ -4636,7 +4636,7 @@
       </c>
       <c r="C97" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5377-3923</v>
+        <v>010-8285-5840</v>
       </c>
       <c r="D97" s="31" t="s">
         <v>384</v>
@@ -4663,7 +4663,7 @@
       </c>
       <c r="C98" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-7947-5240</v>
+        <v>010-9870-1772</v>
       </c>
       <c r="D98" s="31" t="s">
         <v>385</v>
@@ -4690,7 +4690,7 @@
       </c>
       <c r="C99" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-1479-2070</v>
+        <v>010-7277-4738</v>
       </c>
       <c r="D99" s="31" t="s">
         <v>386</v>
@@ -4717,7 +4717,7 @@
       </c>
       <c r="C100" s="15" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5594-4039</v>
+        <v>010-3874-3244</v>
       </c>
       <c r="D100" s="31" t="s">
         <v>387</v>
@@ -4744,7 +4744,7 @@
       </c>
       <c r="C101" s="19" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v>010-5142-2246</v>
+        <v>010-5404-6935</v>
       </c>
       <c r="D101" s="33" t="s">
         <v>388</v>
@@ -11358,7 +11358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{117C32EA-AE7F-41DC-B475-C1BB44D68603}">
   <dimension ref="A1:D701"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
